--- a/PES/SRB Invoices/1073  Invoice for Megaplex Cinemas for Nov 2024.xlsx
+++ b/PES/SRB Invoices/1073  Invoice for Megaplex Cinemas for Nov 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE15D209-92F8-4735-B1D7-690697E9C301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EEF461-5340-4303-8C8C-5D4B31832C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,6 +425,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,27 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1055,16 +1055,16 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1084,11 +1084,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1097,11 +1097,11 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1121,85 +1121,85 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="33"/>
       <c r="E18" s="4"/>
       <c r="F18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="51"/>
+      <c r="H18" s="58"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="34"/>
       <c r="E19" s="3"/>
       <c r="F19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="53"/>
+      <c r="H19" s="60"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="25"/>
       <c r="E20" s="3"/>
       <c r="F20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="35"/>
       <c r="E21" s="3"/>
       <c r="F21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="44"/>
+      <c r="H21" s="51"/>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1224,11 +1224,11 @@
       <c r="A25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="29" t="s">
         <v>13</v>
       </c>
@@ -1257,11 +1257,11 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1271,9 +1271,9 @@
     </row>
     <row r="28" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1282,41 +1282,41 @@
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="42">
+      <c r="A29" s="49">
         <v>1</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="59">
-        <v>346500</v>
-      </c>
-      <c r="F29" s="60">
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45">
+        <v>315000</v>
+      </c>
+      <c r="F29" s="46">
         <v>0.15</v>
       </c>
-      <c r="G29" s="61">
+      <c r="G29" s="47">
         <f>E29*15%</f>
-        <v>51975</v>
-      </c>
-      <c r="H29" s="50">
+        <v>47250</v>
+      </c>
+      <c r="H29" s="57">
         <f>E29+G29</f>
-        <v>398475</v>
+        <v>362250</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="50"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8">
         <v>315000</v>
@@ -1399,27 +1399,27 @@
     </row>
     <row r="37" spans="1:13" s="21" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="17">
         <f>SUM(E29:E35)</f>
-        <v>346500</v>
+        <v>315000</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="19">
         <f>SUM(G29:G35)</f>
-        <v>51975</v>
+        <v>47250</v>
       </c>
       <c r="H37" s="20">
         <f>SUM(H29:H35)</f>
-        <v>398475</v>
+        <v>362250</v>
       </c>
       <c r="J37" s="22">
         <f>H37*4%</f>
-        <v>15939</v>
+        <v>14490</v>
       </c>
       <c r="M37" s="22"/>
     </row>
@@ -1430,7 +1430,7 @@
       <c r="D38" s="3"/>
       <c r="J38" s="39">
         <f>G29*20%</f>
-        <v>10395</v>
+        <v>9450</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
       <c r="D39" s="3"/>
       <c r="J39" s="39">
         <f>H37-J37-J38</f>
-        <v>372141</v>
+        <v>338310</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -1478,11 +1478,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B19:C19"/>
@@ -1499,6 +1494,11 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B27:D28"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
